--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da75e8c114a3621f/Desktop/AFourathon-Nekoma/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF66DB3-99DA-4524-B8D1-B8CCC5CD525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BEF66DB3-99DA-4524-B8D1-B8CCC5CD525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40675E9-5C2E-4D47-90CF-093B9A336952}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,8 +527,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -883,24 +884,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
